--- a/public/Formatos/FORMATO_CARGA_MASIVA_MATRICULA.xlsx
+++ b/public/Formatos/FORMATO_CARGA_MASIVA_MATRICULA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\SISTEMAS\MINISTERIO DE EDUCACIÓN\EAE\eae-web\public\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BDD899-65A8-4C10-960C-491F11D4E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051928D3-77AD-4259-9B21-0DF9E6BEB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D8B319A2-D8E2-42CE-9BE7-4B23684A4FEA}"/>
   </bookViews>
@@ -61,16 +61,16 @@
     <t>0262311</t>
   </si>
   <si>
-    <t>FARJE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>LUCY KARINA</t>
-  </si>
-  <si>
     <t>2024-I</t>
+  </si>
+  <si>
+    <t>LINCE</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CARLA</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1133"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,16 +997,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>60030865</v>
+        <v>60031111</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>27</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/Formatos/FORMATO_CARGA_MASIVA_MATRICULA.xlsx
+++ b/public/Formatos/FORMATO_CARGA_MASIVA_MATRICULA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\SISTEMAS\MINISTERIO DE EDUCACIÓN\EAE\eae-web\public\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051928D3-77AD-4259-9B21-0DF9E6BEB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE6B96-BABD-4258-9462-8BF2537B32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D8B319A2-D8E2-42CE-9BE7-4B23684A4FEA}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>NUMERO_DOCUMENTO</t>
   </si>
   <si>
@@ -46,18 +43,6 @@
     <t>AÑO_NACIMIENTO</t>
   </si>
   <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>Especialidad</t>
-  </si>
-  <si>
-    <t>Ciclo</t>
-  </si>
-  <si>
-    <t>Periodo Academico</t>
-  </si>
-  <si>
     <t>0262311</t>
   </si>
   <si>
@@ -71,6 +56,21 @@
   </si>
   <si>
     <t>CARLA</t>
+  </si>
+  <si>
+    <t>CODIGO_MODULAR</t>
+  </si>
+  <si>
+    <t>ID_SEXO</t>
+  </si>
+  <si>
+    <t>ID_ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>ID_CICLO</t>
+  </si>
+  <si>
+    <t>PERIODO_ACADEMICO</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,57 +956,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>60031111</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>27</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
